--- a/Stress Fatigue Factor.xlsx
+++ b/Stress Fatigue Factor.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>Average_BHN_steel</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Material</t>
-  </si>
-  <si>
-    <t>Cast iron</t>
   </si>
 </sst>
 </file>
@@ -479,7 +476,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -579,7 +576,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -608,7 +605,7 @@
     </row>
     <row r="3" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>1330</v>
